--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -78,24 +78,12 @@
     <t>Куропаткин 12</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -172,6 +160,18 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="71" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1297,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1423,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1465,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1507,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1549,7 +1549,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -2096,7 +2096,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <f>MROUND(SUM(K3:K38),1)</f>
@@ -2107,7 +2107,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2118,7 +2118,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2128,7 +2128,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -33,12 +33,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="111" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -558,25 +558,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -611,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1297,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1423,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1465,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1507,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1549,7 +1549,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1591,7 +1591,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1633,7 +1633,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1675,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1717,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1759,7 +1759,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1801,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1843,7 +1843,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1885,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -1969,7 +1969,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2011,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2053,7 +2053,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2096,7 +2096,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <f>MROUND(SUM(K3:K38),1)</f>
@@ -2107,7 +2107,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2118,7 +2118,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2128,7 +2128,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251A348B-8587-4C10-9665-4E4F20E4F187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D100A54-C5C5-4431-BD7F-CA64018D8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" xr2:uid="{5D209A63-C42B-4ED2-8972-460A989B3A11}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -723,21 +723,21 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K5" si="4">ROUNDUP(J4+E4,1)</f>
+        <f>ROUNDDOWN(J4+E4,1)</f>
         <v>4892.8</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -749,11 +749,11 @@
         <v>4857.6000000000004</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -768,21 +768,21 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5:K38" si="8">ROUNDDOWN(J5+E5,1)</f>
         <v>4857.6000000000004</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -794,11 +794,11 @@
         <v>4822.4000000000005</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -813,21 +813,21 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K37" si="9">J6+E6</f>
-        <v>4822.4000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4822.3999999999996</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -839,11 +839,11 @@
         <v>4787.2000000000007</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -858,21 +858,21 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="9"/>
-        <v>4787.2000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4787.2</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -884,11 +884,11 @@
         <v>4752</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -903,21 +903,21 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4752</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -929,11 +929,11 @@
         <v>4716.8</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -948,21 +948,21 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4716.8</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -974,11 +974,11 @@
         <v>4681.6000000000004</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -993,21 +993,21 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4681.6000000000004</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -1019,11 +1019,11 @@
         <v>4646.4000000000005</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1038,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="9"/>
-        <v>4646.4000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4646.3999999999996</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -1064,11 +1064,11 @@
         <v>4611.2000000000007</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1083,21 +1083,21 @@
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="9"/>
-        <v>4621.2000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4621.2</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -1109,11 +1109,11 @@
         <v>4576</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1128,21 +1128,21 @@
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4596</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -1154,11 +1154,11 @@
         <v>4540.8</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1173,21 +1173,21 @@
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4570.8</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1199,11 +1199,11 @@
         <v>4505.6000000000004</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1218,21 +1218,21 @@
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4545.6000000000004</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1244,11 +1244,11 @@
         <v>4470.4000000000005</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1263,21 +1263,21 @@
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="9"/>
-        <v>4520.4000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4520.3999999999996</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1289,11 +1289,11 @@
         <v>4435.2000000000007</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1308,21 +1308,21 @@
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="9"/>
-        <v>4495.2000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4495.2</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1334,11 +1334,11 @@
         <v>4400</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1353,21 +1353,21 @@
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4470</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1379,11 +1379,11 @@
         <v>4364.8</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1398,21 +1398,21 @@
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4444.8</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
@@ -1424,11 +1424,11 @@
         <v>4329.6000000000004</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1443,21 +1443,21 @@
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4419.6000000000004</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1469,11 +1469,11 @@
         <v>4294.4000000000005</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1488,21 +1488,21 @@
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="9"/>
-        <v>4394.4000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4394.3999999999996</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1514,11 +1514,11 @@
         <v>4259.2000000000007</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1533,21 +1533,21 @@
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="9"/>
-        <v>4369.2000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4369.2</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1559,11 +1559,11 @@
         <v>4224</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1578,21 +1578,21 @@
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4344</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1604,11 +1604,11 @@
         <v>4188.8</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1623,21 +1623,21 @@
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4318.8</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1649,11 +1649,11 @@
         <v>4153.6000000000004</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1668,21 +1668,21 @@
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4293.6000000000004</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1694,11 +1694,11 @@
         <v>4118.4000000000005</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1713,21 +1713,21 @@
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="9"/>
-        <v>4268.4000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4268.3999999999996</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1739,11 +1739,11 @@
         <v>4083.2000000000003</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1758,21 +1758,21 @@
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="9"/>
-        <v>4243.2000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4243.2</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1784,11 +1784,11 @@
         <v>4048.0000000000005</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1803,21 +1803,21 @@
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4218</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1829,11 +1829,11 @@
         <v>4012.8</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1848,21 +1848,21 @@
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4192.8</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1874,11 +1874,11 @@
         <v>3977.6000000000004</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1893,21 +1893,21 @@
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4167.6000000000004</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -1919,11 +1919,11 @@
         <v>3942.4000000000005</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1938,21 +1938,21 @@
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="9"/>
-        <v>4142.4000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4142.3999999999996</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -1964,11 +1964,11 @@
         <v>3907.2000000000003</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1983,21 +1983,21 @@
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="9"/>
-        <v>4117.2000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4117.2</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -2009,11 +2009,11 @@
         <v>3872.0000000000005</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2028,21 +2028,21 @@
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="9"/>
-        <v>4092.0000000000005</v>
+        <f t="shared" si="8"/>
+        <v>4092</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -2054,11 +2054,11 @@
         <v>3836.8</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2073,21 +2073,21 @@
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4066.8</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2099,11 +2099,11 @@
         <v>1900.8000000000002</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2118,25 +2118,25 @@
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2140.8000000000002</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">D28/2</f>
+        <f t="shared" ref="D36:D38" si="9">D28/2</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E36" s="2">
@@ -2144,11 +2144,11 @@
         <v>1883.2</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2163,25 +2163,25 @@
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2133.1999999999998</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E37" s="2">
@@ -2189,11 +2189,11 @@
         <v>1865.6000000000001</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2208,25 +2208,25 @@
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="9"/>
-        <v>2125.6000000000004</v>
+        <f t="shared" si="8"/>
+        <v>2125.6</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E38" s="2">
@@ -2234,11 +2234,11 @@
         <v>1848.0000000000002</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2253,7 +2253,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f>J38+E38</f>
+        <f t="shared" si="8"/>
         <v>2118</v>
       </c>
       <c r="L38" s="2"/>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D100A54-C5C5-4431-BD7F-CA64018D8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{601097C3-32CD-44E7-862F-E2E5E497CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" xr2:uid="{5D209A63-C42B-4ED2-8972-460A989B3A11}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D974CBDB-E351-4C02-B9D6-41A850689709}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f>ROUNDDOWN(J4+E4,1)</f>
+        <f>J4+E4</f>
         <v>4892.8</v>
       </c>
       <c r="L4" s="2"/>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K38" si="8">ROUNDDOWN(J5+E5,1)</f>
+        <f t="shared" ref="K5:K38" si="8">J5+E5</f>
         <v>4857.6000000000004</v>
       </c>
       <c r="L5" s="2"/>
@@ -814,7 +814,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="8"/>
-        <v>4822.3999999999996</v>
+        <v>4822.4000000000005</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="8"/>
-        <v>4787.2</v>
+        <v>4787.2000000000007</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="8"/>
-        <v>4646.3999999999996</v>
+        <v>4646.4000000000005</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="8"/>
-        <v>4621.2</v>
+        <v>4621.2000000000007</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="8"/>
-        <v>4520.3999999999996</v>
+        <v>4520.4000000000005</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="8"/>
-        <v>4495.2</v>
+        <v>4495.2000000000007</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="8"/>
-        <v>4394.3999999999996</v>
+        <v>4394.4000000000005</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="8"/>
-        <v>4369.2</v>
+        <v>4369.2000000000007</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="8"/>
-        <v>4268.3999999999996</v>
+        <v>4268.4000000000005</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="8"/>
-        <v>4243.2</v>
+        <v>4243.2000000000007</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="K31" s="2">
         <f t="shared" si="8"/>
-        <v>4142.3999999999996</v>
+        <v>4142.4000000000005</v>
       </c>
       <c r="L31" s="2"/>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K32" s="2">
         <f t="shared" si="8"/>
-        <v>4117.2</v>
+        <v>4117.2000000000007</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="8"/>
-        <v>4092</v>
+        <v>4092.0000000000005</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="K37" s="2">
         <f t="shared" si="8"/>
-        <v>2125.6</v>
+        <v>2125.6000000000004</v>
       </c>
       <c r="L37" s="2"/>
     </row>
@@ -2278,8 +2278,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="2">
-        <f>ROUNDUP(SUM(K3:K38),0)</f>
-        <v>151515</v>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>151514</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2297,7 +2297,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2">
-        <f>SUM(C3:C38)/36</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="2"/>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -378,14 +378,14 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
@@ -458,7 +458,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">A1*1.1</f>
         <v>70.4</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -471,6 +471,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1" t="n">
+        <f aca="false">IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -497,7 +498,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D3</f>
         <v>70.4</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -513,7 +514,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1" t="n">
-        <f aca="false">IF(G4-F4 &gt; 0, G4-F4, 0)</f>
+        <f aca="false">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -543,7 +544,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D4</f>
         <v>70.4</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -559,7 +560,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1" t="n">
-        <f aca="false">IF(G5-F5 &gt; 0, G5-F5, 0)</f>
+        <f aca="false">IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -588,7 +589,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D5</f>
         <v>70.4</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -604,7 +605,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1" t="n">
-        <f aca="false">IF(G6-F6 &gt; 0, G6-F6, 0)</f>
+        <f aca="false">IF(G6&gt;F6,G6-F6,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -633,7 +634,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D6</f>
         <v>70.4</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -649,7 +650,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1" t="n">
-        <f aca="false">IF(G7-F7 &gt; 0, G7-F7, 0)</f>
+        <f aca="false">IF(G7&gt;F7,G7-F7,0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -678,7 +679,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D7</f>
         <v>70.4</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -694,7 +695,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1" t="n">
-        <f aca="false">IF(G8-F8 &gt; 0, G8-F8, 0)</f>
+        <f aca="false">IF(G8&gt;F8,G8-F8,0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -723,7 +724,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D8</f>
         <v>70.4</v>
       </c>
       <c r="E9" s="1" t="n">
@@ -739,7 +740,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1" t="n">
-        <f aca="false">IF(G9-F9 &gt; 0, G9-F9, 0)</f>
+        <f aca="false">IF(G9&gt;F9,G9-F9,0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -768,7 +769,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D9</f>
         <v>70.4</v>
       </c>
       <c r="E10" s="1" t="n">
@@ -784,7 +785,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1" t="n">
-        <f aca="false">IF(G10-F10 &gt; 0, G10-F10, 0)</f>
+        <f aca="false">IF(G10&gt;F10,G10-F10,0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -813,7 +814,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D10</f>
         <v>70.4</v>
       </c>
       <c r="E11" s="1" t="n">
@@ -829,7 +830,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1" t="n">
-        <f aca="false">IF(G11-F11 &gt; 0, G11-F11, 0)</f>
+        <f aca="false">IF(G11&gt;F11,G11-F11,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -858,7 +859,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D11</f>
         <v>70.4</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -874,7 +875,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1" t="n">
-        <f aca="false">IF(G12-F12 &gt; 0, G12-F12, 0)</f>
+        <f aca="false">IF(G12&gt;F12,G12-F12,0)</f>
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -903,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D12</f>
         <v>70.4</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -919,7 +920,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1" t="n">
-        <f aca="false">IF(G13-F13 &gt; 0, G13-F13, 0)</f>
+        <f aca="false">IF(G13&gt;F13,G13-F13,0)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -948,7 +949,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D13</f>
         <v>70.4</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -964,7 +965,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1" t="n">
-        <f aca="false">IF(G14-F14 &gt; 0, G14-F14, 0)</f>
+        <f aca="false">IF(G14&gt;F14,G14-F14,0)</f>
         <v>3</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -993,7 +994,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D14</f>
         <v>70.4</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -1009,7 +1010,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1" t="n">
-        <f aca="false">IF(G15-F15 &gt; 0, G15-F15, 0)</f>
+        <f aca="false">IF(G15&gt;F15,G15-F15,0)</f>
         <v>4</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -1038,7 +1039,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D15</f>
         <v>70.4</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -1054,7 +1055,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1" t="n">
-        <f aca="false">IF(G16-F16 &gt; 0, G16-F16, 0)</f>
+        <f aca="false">IF(G16&gt;F16,G16-F16,0)</f>
         <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -1083,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D16</f>
         <v>70.4</v>
       </c>
       <c r="E17" s="1" t="n">
@@ -1099,7 +1100,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1" t="n">
-        <f aca="false">IF(G17-F17 &gt; 0, G17-F17, 0)</f>
+        <f aca="false">IF(G17&gt;F17,G17-F17,0)</f>
         <v>6</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -1128,7 +1129,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D17</f>
         <v>70.4</v>
       </c>
       <c r="E18" s="1" t="n">
@@ -1144,7 +1145,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1" t="n">
-        <f aca="false">IF(G18-F18 &gt; 0, G18-F18, 0)</f>
+        <f aca="false">IF(G18&gt;F18,G18-F18,0)</f>
         <v>7</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -1173,7 +1174,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D18</f>
         <v>70.4</v>
       </c>
       <c r="E19" s="1" t="n">
@@ -1189,7 +1190,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1" t="n">
-        <f aca="false">IF(G19-F19 &gt; 0, G19-F19, 0)</f>
+        <f aca="false">IF(G19&gt;F19,G19-F19,0)</f>
         <v>8</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1218,7 +1219,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D19</f>
         <v>70.4</v>
       </c>
       <c r="E20" s="1" t="n">
@@ -1234,7 +1235,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1" t="n">
-        <f aca="false">IF(G20-F20 &gt; 0, G20-F20, 0)</f>
+        <f aca="false">IF(G20&gt;F20,G20-F20,0)</f>
         <v>9</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -1263,7 +1264,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D20</f>
         <v>70.4</v>
       </c>
       <c r="E21" s="1" t="n">
@@ -1279,7 +1280,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1" t="n">
-        <f aca="false">IF(G21-F21 &gt; 0, G21-F21, 0)</f>
+        <f aca="false">IF(G21&gt;F21,G21-F21,0)</f>
         <v>10</v>
       </c>
       <c r="I21" s="1" t="n">
@@ -1308,7 +1309,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D21</f>
         <v>70.4</v>
       </c>
       <c r="E22" s="1" t="n">
@@ -1324,7 +1325,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1" t="n">
-        <f aca="false">IF(G22-F22 &gt; 0, G22-F22, 0)</f>
+        <f aca="false">IF(G22&gt;F22,G22-F22,0)</f>
         <v>11</v>
       </c>
       <c r="I22" s="1" t="n">
@@ -1353,7 +1354,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D22</f>
         <v>70.4</v>
       </c>
       <c r="E23" s="1" t="n">
@@ -1369,7 +1370,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1" t="n">
-        <f aca="false">IF(G23-F23 &gt; 0, G23-F23, 0)</f>
+        <f aca="false">IF(G23&gt;F23,G23-F23,0)</f>
         <v>12</v>
       </c>
       <c r="I23" s="1" t="n">
@@ -1398,7 +1399,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D23</f>
         <v>70.4</v>
       </c>
       <c r="E24" s="1" t="n">
@@ -1414,7 +1415,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1" t="n">
-        <f aca="false">IF(G24-F24 &gt; 0, G24-F24, 0)</f>
+        <f aca="false">IF(G24&gt;F24,G24-F24,0)</f>
         <v>13</v>
       </c>
       <c r="I24" s="1" t="n">
@@ -1443,7 +1444,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D24</f>
         <v>70.4</v>
       </c>
       <c r="E25" s="1" t="n">
@@ -1459,7 +1460,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1" t="n">
-        <f aca="false">IF(G25-F25 &gt; 0, G25-F25, 0)</f>
+        <f aca="false">IF(G25&gt;F25,G25-F25,0)</f>
         <v>14</v>
       </c>
       <c r="I25" s="1" t="n">
@@ -1488,7 +1489,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D25</f>
         <v>70.4</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -1504,7 +1505,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1" t="n">
-        <f aca="false">IF(G26-F26 &gt; 0, G26-F26, 0)</f>
+        <f aca="false">IF(G26&gt;F26,G26-F26,0)</f>
         <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
@@ -1533,7 +1534,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D26</f>
         <v>70.4</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -1549,7 +1550,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1" t="n">
-        <f aca="false">IF(G27-F27 &gt; 0, G27-F27, 0)</f>
+        <f aca="false">IF(G27&gt;F27,G27-F27,0)</f>
         <v>16</v>
       </c>
       <c r="I27" s="1" t="n">
@@ -1578,7 +1579,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D27</f>
         <v>70.4</v>
       </c>
       <c r="E28" s="1" t="n">
@@ -1594,7 +1595,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1" t="n">
-        <f aca="false">IF(G28-F28 &gt; 0, G28-F28, 0)</f>
+        <f aca="false">IF(G28&gt;F28,G28-F28,0)</f>
         <v>17</v>
       </c>
       <c r="I28" s="1" t="n">
@@ -1623,7 +1624,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D28</f>
         <v>70.4</v>
       </c>
       <c r="E29" s="1" t="n">
@@ -1639,7 +1640,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1" t="n">
-        <f aca="false">IF(G29-F29 &gt; 0, G29-F29, 0)</f>
+        <f aca="false">IF(G29&gt;F29,G29-F29,0)</f>
         <v>18</v>
       </c>
       <c r="I29" s="1" t="n">
@@ -1668,7 +1669,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D29</f>
         <v>70.4</v>
       </c>
       <c r="E30" s="1" t="n">
@@ -1684,7 +1685,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1" t="n">
-        <f aca="false">IF(G30-F30 &gt; 0, G30-F30, 0)</f>
+        <f aca="false">IF(G30&gt;F30,G30-F30,0)</f>
         <v>19</v>
       </c>
       <c r="I30" s="1" t="n">
@@ -1713,7 +1714,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D30</f>
         <v>70.4</v>
       </c>
       <c r="E31" s="1" t="n">
@@ -1729,7 +1730,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1" t="n">
-        <f aca="false">IF(G31-F31 &gt; 0, G31-F31, 0)</f>
+        <f aca="false">IF(G31&gt;F31,G31-F31,0)</f>
         <v>20</v>
       </c>
       <c r="I31" s="1" t="n">
@@ -1758,7 +1759,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D31</f>
         <v>70.4</v>
       </c>
       <c r="E32" s="1" t="n">
@@ -1774,7 +1775,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1" t="n">
-        <f aca="false">IF(G32-F32 &gt; 0, G32-F32, 0)</f>
+        <f aca="false">IF(G32&gt;F32,G32-F32,0)</f>
         <v>21</v>
       </c>
       <c r="I32" s="1" t="n">
@@ -1803,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D32</f>
         <v>70.4</v>
       </c>
       <c r="E33" s="1" t="n">
@@ -1819,7 +1820,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1" t="n">
-        <f aca="false">IF(G33-F33 &gt; 0, G33-F33, 0)</f>
+        <f aca="false">IF(G33&gt;F33,G33-F33,0)</f>
         <v>22</v>
       </c>
       <c r="I33" s="1" t="n">
@@ -1848,7 +1849,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1" t="n">
-        <f aca="false">$A$1*1.1</f>
+        <f aca="false">D33</f>
         <v>70.4</v>
       </c>
       <c r="E34" s="1" t="n">
@@ -1864,7 +1865,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1" t="n">
-        <f aca="false">IF(G34-F34 &gt; 0, G34-F34, 0)</f>
+        <f aca="false">IF(G34&gt;F34,G34-F34,0)</f>
         <v>23</v>
       </c>
       <c r="I34" s="1" t="n">
@@ -1893,7 +1894,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1" t="n">
-        <f aca="false">D27/2</f>
+        <f aca="false">D3/2</f>
         <v>35.2</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -1909,7 +1910,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1" t="n">
-        <f aca="false">IF(G35-F35 &gt; 0, G35-F35, 0)</f>
+        <f aca="false">IF(G35&gt;F35,G35-F35,0)</f>
         <v>24</v>
       </c>
       <c r="I35" s="1" t="n">
@@ -1938,7 +1939,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1" t="n">
-        <f aca="false">D28/2</f>
+        <f aca="false">D3/2</f>
         <v>35.2</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -1954,7 +1955,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1" t="n">
-        <f aca="false">IF(G36-F36 &gt; 0, G36-F36, 0)</f>
+        <f aca="false">IF(G36&gt;F36,G36-F36,0)</f>
         <v>25</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -1983,7 +1984,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1" t="n">
-        <f aca="false">D29/2</f>
+        <f aca="false">D3/2</f>
         <v>35.2</v>
       </c>
       <c r="E37" s="1" t="n">
@@ -1999,7 +2000,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1" t="n">
-        <f aca="false">IF(G37-F37 &gt; 0, G37-F37, 0)</f>
+        <f aca="false">IF(G37&gt;F37,G37-F37,0)</f>
         <v>26</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -2028,7 +2029,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1" t="n">
-        <f aca="false">D30/2</f>
+        <f aca="false">D3/2</f>
         <v>35.2</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -2044,7 +2045,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1" t="n">
-        <f aca="false">IF(G38-F38 &gt; 0, G38-F38, 0)</f>
+        <f aca="false">IF(G38&gt;F38,G38-F38,0)</f>
         <v>27</v>
       </c>
       <c r="I38" s="1" t="n">
@@ -2137,8 +2138,8 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <f aca="false">MAX(K3:K38) +1</f>
-        <v>4929</v>
+        <f aca="false">MAX(K3:K38)</f>
+        <v>4928</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">№квартиры</t>
   </si>
@@ -166,13 +166,25 @@
     <t xml:space="preserve">Общая сумма, руб.</t>
   </si>
   <si>
+    <t xml:space="preserve">ОКРУГЛВНИЗ(СУММ(K3:K38);0)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Средняя площадь, кв.м.</t>
   </si>
   <si>
+    <t xml:space="preserve">СРЗНАЧ(C3:C38)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Максимальный срок просрочки, дней</t>
   </si>
   <si>
+    <t xml:space="preserve">МАКС(H3:H38)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКС(K3:K38)</t>
   </si>
 </sst>
 </file>
@@ -214,14 +226,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +283,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,11 +299,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,17 +388,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:AJ78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
@@ -410,6 +422,30 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -446,6 +482,30 @@
         <v>10</v>
       </c>
       <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -462,6 +522,7 @@
         <v>70.4</v>
       </c>
       <c r="E3" s="1" t="n">
+        <f aca="false">C3*D3</f>
         <v>4928</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -478,12 +539,38 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="n">
+        <f aca="false">I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1" t="n">
+        <f aca="false">E3+J3</f>
         <v>4928</v>
       </c>
       <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -526,10 +613,34 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="n">
-        <f aca="false">J4+E4</f>
+        <f aca="false">E4+J4</f>
         <v>4892.8</v>
       </c>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -571,10 +682,34 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="n">
-        <f aca="false">J5+E5</f>
+        <f aca="false">E5+J5</f>
         <v>4857.6</v>
       </c>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -616,10 +751,34 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="n">
-        <f aca="false">J6+E6</f>
+        <f aca="false">E6+J6</f>
         <v>4822.4</v>
       </c>
       <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -661,10 +820,34 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="n">
-        <f aca="false">J7+E7</f>
+        <f aca="false">E7+J7</f>
         <v>4787.2</v>
       </c>
       <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -706,10 +889,34 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="n">
-        <f aca="false">J8+E8</f>
+        <f aca="false">E8+J8</f>
         <v>4752</v>
       </c>
       <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -751,10 +958,34 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="n">
-        <f aca="false">J9+E9</f>
+        <f aca="false">E9+J9</f>
         <v>4716.8</v>
       </c>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -796,10 +1027,34 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="n">
-        <f aca="false">J10+E10</f>
+        <f aca="false">E10+J10</f>
         <v>4681.6</v>
       </c>
       <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -841,10 +1096,34 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
-        <f aca="false">J11+E11</f>
+        <f aca="false">E11+J11</f>
         <v>4646.4</v>
       </c>
       <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -886,10 +1165,34 @@
         <v>10</v>
       </c>
       <c r="K12" s="1" t="n">
-        <f aca="false">J12+E12</f>
+        <f aca="false">E12+J12</f>
         <v>4621.2</v>
       </c>
       <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -931,10 +1234,34 @@
         <v>20</v>
       </c>
       <c r="K13" s="1" t="n">
-        <f aca="false">J13+E13</f>
+        <f aca="false">E13+J13</f>
         <v>4596</v>
       </c>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -976,10 +1303,34 @@
         <v>30</v>
       </c>
       <c r="K14" s="1" t="n">
-        <f aca="false">J14+E14</f>
+        <f aca="false">E14+J14</f>
         <v>4570.8</v>
       </c>
       <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1021,10 +1372,34 @@
         <v>40</v>
       </c>
       <c r="K15" s="1" t="n">
-        <f aca="false">J15+E15</f>
+        <f aca="false">E15+J15</f>
         <v>4545.6</v>
       </c>
       <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1066,10 +1441,34 @@
         <v>50</v>
       </c>
       <c r="K16" s="1" t="n">
-        <f aca="false">J16+E16</f>
+        <f aca="false">E16+J16</f>
         <v>4520.4</v>
       </c>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1111,10 +1510,34 @@
         <v>60</v>
       </c>
       <c r="K17" s="1" t="n">
-        <f aca="false">J17+E17</f>
+        <f aca="false">E17+J17</f>
         <v>4495.2</v>
       </c>
       <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -1156,10 +1579,34 @@
         <v>70</v>
       </c>
       <c r="K18" s="1" t="n">
-        <f aca="false">J18+E18</f>
+        <f aca="false">E18+J18</f>
         <v>4470</v>
       </c>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -1201,10 +1648,34 @@
         <v>80</v>
       </c>
       <c r="K19" s="1" t="n">
-        <f aca="false">J19+E19</f>
+        <f aca="false">E19+J19</f>
         <v>4444.8</v>
       </c>
       <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -1246,10 +1717,34 @@
         <v>90</v>
       </c>
       <c r="K20" s="1" t="n">
-        <f aca="false">J20+E20</f>
+        <f aca="false">E20+J20</f>
         <v>4419.6</v>
       </c>
       <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -1291,10 +1786,34 @@
         <v>100</v>
       </c>
       <c r="K21" s="1" t="n">
-        <f aca="false">J21+E21</f>
+        <f aca="false">E21+J21</f>
         <v>4394.4</v>
       </c>
       <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1336,10 +1855,34 @@
         <v>110</v>
       </c>
       <c r="K22" s="1" t="n">
-        <f aca="false">J22+E22</f>
+        <f aca="false">E22+J22</f>
         <v>4369.2</v>
       </c>
       <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -1381,10 +1924,34 @@
         <v>120</v>
       </c>
       <c r="K23" s="1" t="n">
-        <f aca="false">J23+E23</f>
+        <f aca="false">E23+J23</f>
         <v>4344</v>
       </c>
       <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1426,10 +1993,34 @@
         <v>130</v>
       </c>
       <c r="K24" s="1" t="n">
-        <f aca="false">J24+E24</f>
+        <f aca="false">E24+J24</f>
         <v>4318.8</v>
       </c>
       <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1471,10 +2062,34 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="n">
-        <f aca="false">J25+E25</f>
+        <f aca="false">E25+J25</f>
         <v>4293.6</v>
       </c>
       <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1516,10 +2131,34 @@
         <v>150</v>
       </c>
       <c r="K26" s="1" t="n">
-        <f aca="false">J26+E26</f>
+        <f aca="false">E26+J26</f>
         <v>4268.4</v>
       </c>
       <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -1561,10 +2200,34 @@
         <v>160</v>
       </c>
       <c r="K27" s="1" t="n">
-        <f aca="false">J27+E27</f>
+        <f aca="false">E27+J27</f>
         <v>4243.2</v>
       </c>
       <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1606,10 +2269,34 @@
         <v>170</v>
       </c>
       <c r="K28" s="1" t="n">
-        <f aca="false">J28+E28</f>
+        <f aca="false">E28+J28</f>
         <v>4218</v>
       </c>
       <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -1651,10 +2338,34 @@
         <v>180</v>
       </c>
       <c r="K29" s="1" t="n">
-        <f aca="false">J29+E29</f>
+        <f aca="false">E29+J29</f>
         <v>4192.8</v>
       </c>
       <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1696,10 +2407,34 @@
         <v>190</v>
       </c>
       <c r="K30" s="1" t="n">
-        <f aca="false">J30+E30</f>
+        <f aca="false">E30+J30</f>
         <v>4167.6</v>
       </c>
       <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -1741,10 +2476,34 @@
         <v>200</v>
       </c>
       <c r="K31" s="1" t="n">
-        <f aca="false">J31+E31</f>
+        <f aca="false">E31+J31</f>
         <v>4142.4</v>
       </c>
       <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -1786,10 +2545,34 @@
         <v>210</v>
       </c>
       <c r="K32" s="1" t="n">
-        <f aca="false">J32+E32</f>
+        <f aca="false">E32+J32</f>
         <v>4117.2</v>
       </c>
       <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1831,10 +2614,34 @@
         <v>220</v>
       </c>
       <c r="K33" s="1" t="n">
-        <f aca="false">J33+E33</f>
+        <f aca="false">E33+J33</f>
         <v>4092</v>
       </c>
       <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -1876,10 +2683,34 @@
         <v>230</v>
       </c>
       <c r="K34" s="1" t="n">
-        <f aca="false">J34+E34</f>
+        <f aca="false">E34+J34</f>
         <v>4066.8</v>
       </c>
       <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1921,10 +2752,34 @@
         <v>240</v>
       </c>
       <c r="K35" s="1" t="n">
-        <f aca="false">J35+E35</f>
+        <f aca="false">E35+J35</f>
         <v>2140.8</v>
       </c>
       <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -1966,10 +2821,34 @@
         <v>250</v>
       </c>
       <c r="K36" s="1" t="n">
-        <f aca="false">J36+E36</f>
+        <f aca="false">E36+J36</f>
         <v>2133.2</v>
       </c>
       <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -2011,10 +2890,34 @@
         <v>260</v>
       </c>
       <c r="K37" s="1" t="n">
-        <f aca="false">J37+E37</f>
+        <f aca="false">E37+J37</f>
         <v>2125.6</v>
       </c>
       <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -2056,10 +2959,34 @@
         <v>270</v>
       </c>
       <c r="K38" s="1" t="n">
-        <f aca="false">J38+E38</f>
+        <f aca="false">E38+J38</f>
         <v>2118</v>
       </c>
       <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
@@ -2074,15 +3001,38 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <f aca="false">ROUNDDOWN(SUM(K3:K38),0)</f>
-        <v>151514</v>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2093,15 +3043,38 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <f aca="false">AVERAGE(C3:C38)</f>
-        <v>61.25</v>
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2112,15 +3085,38 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <f aca="false">MAX(H3:H38)</f>
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2131,15 +3127,38 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <f aca="false">MAX(K3:K38)</f>
-        <v>4928</v>
+        <v>53</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2150,6 +3169,30 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
@@ -2164,6 +3207,30 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
@@ -2178,6 +3245,30 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
@@ -2192,6 +3283,30 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
@@ -2206,6 +3321,30 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
@@ -2220,6 +3359,1170 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,205 +24,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">№квартиры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срок оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просрочка, дней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пени за 1 день, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Штраф, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алишеров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аллаярова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антипов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арсланов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гусаков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дедюхин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камалов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Любенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максутов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никифорович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Овчинников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Романова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Симоненко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стариков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулейманов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тураев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хакимджанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хасанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чарыев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юсупова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куропаткин 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОКРУГЛВНИЗ(СУММ(K3:K38);0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СРЗНАЧ(C3:C38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКС(H3:H38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКС(K3:K38)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Алишеров</t>
+  </si>
+  <si>
+    <t>Аллаярова</t>
+  </si>
+  <si>
+    <t>Антипов</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Гусаков</t>
+  </si>
+  <si>
+    <t>Дедюхин</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Камалов</t>
+  </si>
+  <si>
+    <t>Любенко</t>
+  </si>
+  <si>
+    <t>Максутов</t>
+  </si>
+  <si>
+    <t>Никифорович</t>
+  </si>
+  <si>
+    <t>Овчинников</t>
+  </si>
+  <si>
+    <t>Романова</t>
+  </si>
+  <si>
+    <t>Симоненко</t>
+  </si>
+  <si>
+    <t>Стариков</t>
+  </si>
+  <si>
+    <t>Сулейманов</t>
+  </si>
+  <si>
+    <t>Тураев</t>
+  </si>
+  <si>
+    <t>Хакимджанов</t>
+  </si>
+  <si>
+    <t>Хасанов</t>
+  </si>
+  <si>
+    <t>Чарыев</t>
+  </si>
+  <si>
+    <t>Юсупова</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
@@ -245,7 +215,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -253,73 +223,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -378,37 +307,311 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF282C34"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.84"/>
+    <col min="1" max="1" width="11.84375" customWidth="1"/>
+    <col min="2" max="2" width="27.3046875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.765625" customWidth="1"/>
+    <col min="5" max="5" width="11.15234375" customWidth="1"/>
+    <col min="6" max="6" width="14.69140625" customWidth="1"/>
+    <col min="7" max="7" width="15.53515625" customWidth="1"/>
+    <col min="8" max="8" width="10.61328125" customWidth="1"/>
+    <col min="9" max="9" width="13.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
         <v>64</v>
       </c>
       <c r="B1" s="1"/>
@@ -447,39 +650,39 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
@@ -507,43 +710,43 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">A1*1.1</f>
-        <v>70.4</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">C3*D3</f>
+      <c r="D3" s="1">
+        <f>A1*1.1</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>4928</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>44813</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">IF(G3&gt;F3,G3-F3,0)</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H38" si="1">IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <f aca="false">I3*H3</f>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J38" si="2">I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <f aca="false">E3+J3</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
         <v>4928</v>
       </c>
       <c r="L3" s="1"/>
@@ -572,48 +775,48 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">C3-0.5</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">D3</f>
-        <v>70.4</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">C4*D4</f>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
         <v>4892.8</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false">F3</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F38" si="7">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6" t="n">
-        <f aca="false">G3+1</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G38" si="8">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">IF(G4&gt;F4,G4-F4,0)</f>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">I3</f>
+      <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">I4*H4</f>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">E4+J4</f>
+      <c r="K4" s="1">
+        <f t="shared" si="3"/>
         <v>4892.8</v>
       </c>
       <c r="L4" s="1"/>
@@ -642,48 +845,48 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">C4-0.5</f>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">D4</f>
-        <v>70.4</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">C5*D5</f>
-        <v>4857.6</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false">F4</f>
+      <c r="D5" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>4857.6000000000004</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <f aca="false">G4+1</f>
+      <c r="G5" s="6">
+        <f t="shared" si="8"/>
         <v>44807</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">IF(G5&gt;F5,G5-F5,0)</f>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">I5*H5</f>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">E5+J5</f>
-        <v>4857.6</v>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>4857.6000000000004</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -711,48 +914,48 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">C5-0.5</f>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">D5</f>
-        <v>70.4</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">C6*D6</f>
-        <v>4822.4</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false">F5</f>
+      <c r="D6" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>4822.4000000000005</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="6" t="n">
-        <f aca="false">G5+1</f>
+      <c r="G6" s="6">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">IF(G6&gt;F6,G6-F6,0)</f>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">I6*H6</f>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">E6+J6</f>
-        <v>4822.4</v>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>4822.4000000000005</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -780,48 +983,48 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">C6-0.5</f>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">D6</f>
-        <v>70.4</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">C7*D7</f>
-        <v>4787.2</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <f aca="false">F6</f>
+      <c r="D7" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4787.2000000000007</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="6" t="n">
-        <f aca="false">G6+1</f>
+      <c r="G7" s="6">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">IF(G7&gt;F7,G7-F7,0)</f>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <f aca="false">I7*H7</f>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="n">
-        <f aca="false">E7+J7</f>
-        <v>4787.2</v>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>4787.2000000000007</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -849,47 +1052,47 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">C7-0.5</f>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">D7</f>
-        <v>70.4</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">C8*D8</f>
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>4752</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <f aca="false">F7</f>
+      <c r="F8" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <f aca="false">G7+1</f>
+      <c r="G8" s="6">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">IF(G8&gt;F8,G8-F8,0)</f>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <f aca="false">I8*H8</f>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <f aca="false">E8+J8</f>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>4752</v>
       </c>
       <c r="L8" s="1"/>
@@ -918,47 +1121,47 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <f aca="false">A8+1</f>
+    <row r="9" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">C8-0.5</f>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">D8</f>
-        <v>70.4</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">C9*D9</f>
+      <c r="D9" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
         <v>4716.8</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <f aca="false">F8</f>
+      <c r="F9" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <f aca="false">G8+1</f>
+      <c r="G9" s="6">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">IF(G9&gt;F9,G9-F9,0)</f>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <f aca="false">I9*H9</f>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <f aca="false">E9+J9</f>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
         <v>4716.8</v>
       </c>
       <c r="L9" s="1"/>
@@ -987,48 +1190,48 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <f aca="false">A9+1</f>
+    <row r="10" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">C9-0.5</f>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">D9</f>
-        <v>70.4</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">C10*D10</f>
-        <v>4681.6</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false">F9</f>
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>4681.6000000000004</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="6" t="n">
-        <f aca="false">G9+1</f>
+      <c r="G10" s="6">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">IF(G10&gt;F10,G10-F10,0)</f>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">I10*H10</f>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <f aca="false">E10+J10</f>
-        <v>4681.6</v>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>4681.6000000000004</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1056,48 +1259,48 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <f aca="false">A10+1</f>
+    <row r="11" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">C10-0.5</f>
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">D10</f>
-        <v>70.4</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">C11*D11</f>
-        <v>4646.4</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <f aca="false">F10</f>
+      <c r="D11" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>4646.4000000000005</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="6" t="n">
-        <f aca="false">G10+1</f>
+      <c r="G11" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">IF(G11&gt;F11,G11-F11,0)</f>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">I11*H11</f>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <f aca="false">E11+J11</f>
-        <v>4646.4</v>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>4646.4000000000005</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1125,48 +1328,48 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <f aca="false">A11+1</f>
+    <row r="12" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">C11-0.5</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">D11</f>
-        <v>70.4</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">C12*D12</f>
-        <v>4611.2</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false">F11</f>
+      <c r="D12" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>4611.2000000000007</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="6" t="n">
-        <f aca="false">G11+1</f>
+      <c r="G12" s="6">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">IF(G12&gt;F12,G12-F12,0)</f>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false">I12*H12</f>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <f aca="false">E12+J12</f>
-        <v>4621.2</v>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>4621.2000000000007</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1194,47 +1397,47 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <f aca="false">A12+1</f>
+    <row r="13" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">C12-0.5</f>
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">D12</f>
-        <v>70.4</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">C13*D13</f>
+      <c r="D13" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
         <v>4576</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false">F12</f>
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="6" t="n">
-        <f aca="false">G12+1</f>
+      <c r="G13" s="6">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">IF(G13&gt;F13,G13-F13,0)</f>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>10</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <f aca="false">I13*H13</f>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1" t="n">
-        <f aca="false">E13+J13</f>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
         <v>4596</v>
       </c>
       <c r="L13" s="1"/>
@@ -1263,47 +1466,47 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <f aca="false">A13+1</f>
+    <row r="14" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">C13-0.5</f>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">D13</f>
-        <v>70.4</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">C14*D14</f>
+      <c r="D14" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>4540.8</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <f aca="false">F13</f>
+      <c r="F14" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <f aca="false">G13+1</f>
+      <c r="G14" s="6">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">IF(G14&gt;F14,G14-F14,0)</f>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>10</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <f aca="false">I14*H14</f>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1" t="n">
-        <f aca="false">E14+J14</f>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
         <v>4570.8</v>
       </c>
       <c r="L14" s="1"/>
@@ -1332,48 +1535,48 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <f aca="false">A14+1</f>
+    <row r="15" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">C14-0.5</f>
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">D14</f>
-        <v>70.4</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">C15*D15</f>
-        <v>4505.6</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <f aca="false">F14</f>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>4505.6000000000004</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="6" t="n">
-        <f aca="false">G14+1</f>
+      <c r="G15" s="6">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">IF(G15&gt;F15,G15-F15,0)</f>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>10</v>
       </c>
-      <c r="J15" s="1" t="n">
-        <f aca="false">I15*H15</f>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1" t="n">
-        <f aca="false">E15+J15</f>
-        <v>4545.6</v>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>4545.6000000000004</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1401,48 +1604,48 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <f aca="false">A15+1</f>
+    <row r="16" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">C15-0.5</f>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">D15</f>
-        <v>70.4</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">C16*D16</f>
-        <v>4470.4</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <f aca="false">F15</f>
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>4470.4000000000005</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <f aca="false">G15+1</f>
+      <c r="G16" s="6">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">IF(G16&gt;F16,G16-F16,0)</f>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>10</v>
       </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">I16*H16</f>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">E16+J16</f>
-        <v>4520.4</v>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>4520.4000000000005</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1470,48 +1673,48 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <f aca="false">A16+1</f>
+    <row r="17" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">C16-0.5</f>
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">D16</f>
-        <v>70.4</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">C17*D17</f>
-        <v>4435.2</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <f aca="false">F16</f>
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>4435.2000000000007</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="6" t="n">
-        <f aca="false">G16+1</f>
+      <c r="G17" s="6">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">IF(G17&gt;F17,G17-F17,0)</f>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <f aca="false">I17*H17</f>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1" t="n">
-        <f aca="false">E17+J17</f>
-        <v>4495.2</v>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>4495.2000000000007</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1539,47 +1742,47 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <f aca="false">A17+1</f>
+    <row r="18" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">C17-0.5</f>
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">D17</f>
-        <v>70.4</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">C18*D18</f>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <f aca="false">F17</f>
+      <c r="F18" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <f aca="false">G17+1</f>
+      <c r="G18" s="6">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">IF(G18&gt;F18,G18-F18,0)</f>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>10</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <f aca="false">I18*H18</f>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1" t="n">
-        <f aca="false">E18+J18</f>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
         <v>4470</v>
       </c>
       <c r="L18" s="1"/>
@@ -1608,47 +1811,47 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <f aca="false">A18+1</f>
+    <row r="19" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">C18-0.5</f>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">D18</f>
-        <v>70.4</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">C19*D19</f>
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
         <v>4364.8</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <f aca="false">F18</f>
+      <c r="F19" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="6" t="n">
-        <f aca="false">G18+1</f>
+      <c r="G19" s="6">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">IF(G19&gt;F19,G19-F19,0)</f>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="1">
         <v>10</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <f aca="false">I19*H19</f>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1" t="n">
-        <f aca="false">E19+J19</f>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
         <v>4444.8</v>
       </c>
       <c r="L19" s="1"/>
@@ -1677,48 +1880,48 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <f aca="false">A19+1</f>
+    <row r="20" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <f aca="false">C19-0.5</f>
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">D19</f>
-        <v>70.4</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <f aca="false">C20*D20</f>
-        <v>4329.6</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <f aca="false">F19</f>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>4329.6000000000004</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="6" t="n">
-        <f aca="false">G19+1</f>
+      <c r="G20" s="6">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">IF(G20&gt;F20,G20-F20,0)</f>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>10</v>
       </c>
-      <c r="J20" s="1" t="n">
-        <f aca="false">I20*H20</f>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1" t="n">
-        <f aca="false">E20+J20</f>
-        <v>4419.6</v>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>4419.6000000000004</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1746,48 +1949,48 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <f aca="false">A20+1</f>
+    <row r="21" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">C20-0.5</f>
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false">D20</f>
-        <v>70.4</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <f aca="false">C21*D21</f>
-        <v>4294.4</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <f aca="false">F20</f>
+      <c r="D21" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>4294.4000000000005</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="6" t="n">
-        <f aca="false">G20+1</f>
+      <c r="G21" s="6">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">IF(G21&gt;F21,G21-F21,0)</f>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="1">
         <v>10</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <f aca="false">I21*H21</f>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1" t="n">
-        <f aca="false">E21+J21</f>
-        <v>4394.4</v>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>4394.4000000000005</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1815,48 +2018,48 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <f aca="false">A21+1</f>
+    <row r="22" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <f aca="false">C21-0.5</f>
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">D21</f>
-        <v>70.4</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">C22*D22</f>
-        <v>4259.2</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <f aca="false">F21</f>
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>4259.2000000000007</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="6" t="n">
-        <f aca="false">G21+1</f>
+      <c r="G22" s="6">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">IF(G22&gt;F22,G22-F22,0)</f>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="1">
         <v>10</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <f aca="false">I22*H22</f>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1" t="n">
-        <f aca="false">E22+J22</f>
-        <v>4369.2</v>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>4369.2000000000007</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1884,47 +2087,47 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <f aca="false">A22+1</f>
+    <row r="23" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">C22-0.5</f>
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false">D22</f>
-        <v>70.4</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <f aca="false">C23*D23</f>
+      <c r="D23" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
         <v>4224</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <f aca="false">F22</f>
+      <c r="F23" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="6" t="n">
-        <f aca="false">G22+1</f>
+      <c r="G23" s="6">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">IF(G23&gt;F23,G23-F23,0)</f>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="1">
         <v>10</v>
       </c>
-      <c r="J23" s="1" t="n">
-        <f aca="false">I23*H23</f>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1" t="n">
-        <f aca="false">E23+J23</f>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
         <v>4344</v>
       </c>
       <c r="L23" s="1"/>
@@ -1953,47 +2156,47 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <f aca="false">A23+1</f>
+    <row r="24" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <f aca="false">C23-0.5</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false">D23</f>
-        <v>70.4</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <f aca="false">C24*D24</f>
+      <c r="D24" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
         <v>4188.8</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <f aca="false">F23</f>
+      <c r="F24" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="6" t="n">
-        <f aca="false">G23+1</f>
+      <c r="G24" s="6">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">IF(G24&gt;F24,G24-F24,0)</f>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="1">
         <v>10</v>
       </c>
-      <c r="J24" s="1" t="n">
-        <f aca="false">I24*H24</f>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1" t="n">
-        <f aca="false">E24+J24</f>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
         <v>4318.8</v>
       </c>
       <c r="L24" s="1"/>
@@ -2022,48 +2225,48 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <f aca="false">A24+1</f>
+    <row r="25" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <f aca="false">C24-0.5</f>
+        <v>31</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <f aca="false">D24</f>
-        <v>70.4</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <f aca="false">C25*D25</f>
-        <v>4153.6</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <f aca="false">F24</f>
+      <c r="D25" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>4153.6000000000004</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="6" t="n">
-        <f aca="false">G24+1</f>
+      <c r="G25" s="6">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">IF(G25&gt;F25,G25-F25,0)</f>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="1">
         <v>10</v>
       </c>
-      <c r="J25" s="1" t="n">
-        <f aca="false">I25*H25</f>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1" t="n">
-        <f aca="false">E25+J25</f>
-        <v>4293.6</v>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
+        <v>4293.6000000000004</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2091,48 +2294,48 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <f aca="false">A25+1</f>
+    <row r="26" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <f aca="false">C25-0.5</f>
+        <v>32</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false">D25</f>
-        <v>70.4</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <f aca="false">C26*D26</f>
-        <v>4118.4</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <f aca="false">F25</f>
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>4118.4000000000005</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="6" t="n">
-        <f aca="false">G25+1</f>
+      <c r="G26" s="6">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">IF(G26&gt;F26,G26-F26,0)</f>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="1">
         <v>10</v>
       </c>
-      <c r="J26" s="1" t="n">
-        <f aca="false">I26*H26</f>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1" t="n">
-        <f aca="false">E26+J26</f>
-        <v>4268.4</v>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
+        <v>4268.4000000000005</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2160,48 +2363,48 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <f aca="false">A26+1</f>
+    <row r="27" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <f aca="false">C26-0.5</f>
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false">D26</f>
-        <v>70.4</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <f aca="false">C27*D27</f>
-        <v>4083.2</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <f aca="false">F26</f>
+      <c r="D27" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>4083.2000000000003</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="6" t="n">
-        <f aca="false">G26+1</f>
+      <c r="G27" s="6">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">IF(G27&gt;F27,G27-F27,0)</f>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="1">
         <v>10</v>
       </c>
-      <c r="J27" s="1" t="n">
-        <f aca="false">I27*H27</f>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1" t="n">
-        <f aca="false">E27+J27</f>
-        <v>4243.2</v>
+      <c r="K27" s="1">
+        <f t="shared" si="3"/>
+        <v>4243.2000000000007</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2229,47 +2432,47 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <f aca="false">A27+1</f>
+    <row r="28" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <f aca="false">C27-0.5</f>
+        <v>34</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false">D27</f>
-        <v>70.4</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <f aca="false">C28*D28</f>
-        <v>4048</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <f aca="false">F27</f>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>4048.0000000000005</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="6" t="n">
-        <f aca="false">G27+1</f>
+      <c r="G28" s="6">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">IF(G28&gt;F28,G28-F28,0)</f>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="1">
         <v>10</v>
       </c>
-      <c r="J28" s="1" t="n">
-        <f aca="false">I28*H28</f>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1" t="n">
-        <f aca="false">E28+J28</f>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
         <v>4218</v>
       </c>
       <c r="L28" s="1"/>
@@ -2298,47 +2501,47 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <f aca="false">A28+1</f>
+    <row r="29" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">C28-0.5</f>
+        <v>35</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <f aca="false">D28</f>
-        <v>70.4</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <f aca="false">C29*D29</f>
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
         <v>4012.8</v>
       </c>
-      <c r="F29" s="5" t="n">
-        <f aca="false">F28</f>
+      <c r="F29" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="6" t="n">
-        <f aca="false">G28+1</f>
+      <c r="G29" s="6">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1" t="n">
-        <f aca="false">IF(G29&gt;F29,G29-F29,0)</f>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="1">
         <v>10</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <f aca="false">I29*H29</f>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1" t="n">
-        <f aca="false">E29+J29</f>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
         <v>4192.8</v>
       </c>
       <c r="L29" s="1"/>
@@ -2367,48 +2570,48 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <f aca="false">A29+1</f>
+    <row r="30" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <f aca="false">C29-0.5</f>
+        <v>36</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <f aca="false">D29</f>
-        <v>70.4</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">C30*D30</f>
-        <v>3977.6</v>
-      </c>
-      <c r="F30" s="5" t="n">
-        <f aca="false">F29</f>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>3977.6000000000004</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="6" t="n">
-        <f aca="false">G29+1</f>
+      <c r="G30" s="6">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">IF(G30&gt;F30,G30-F30,0)</f>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="1">
         <v>10</v>
       </c>
-      <c r="J30" s="1" t="n">
-        <f aca="false">I30*H30</f>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1" t="n">
-        <f aca="false">E30+J30</f>
-        <v>4167.6</v>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
+        <v>4167.6000000000004</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2436,48 +2639,48 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <f aca="false">A30+1</f>
+    <row r="31" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <f aca="false">C30-0.5</f>
+        <v>37</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <f aca="false">D30</f>
-        <v>70.4</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">C31*D31</f>
-        <v>3942.4</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <f aca="false">F30</f>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>3942.4000000000005</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="6" t="n">
-        <f aca="false">G30+1</f>
+      <c r="G31" s="6">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1" t="n">
-        <f aca="false">IF(G31&gt;F31,G31-F31,0)</f>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="1">
         <v>10</v>
       </c>
-      <c r="J31" s="1" t="n">
-        <f aca="false">I31*H31</f>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1" t="n">
-        <f aca="false">E31+J31</f>
-        <v>4142.4</v>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>4142.4000000000005</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2505,48 +2708,48 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <f aca="false">A31+1</f>
+    <row r="32" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <f aca="false">C31-0.5</f>
+        <v>38</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <f aca="false">D31</f>
-        <v>70.4</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <f aca="false">C32*D32</f>
-        <v>3907.2</v>
-      </c>
-      <c r="F32" s="5" t="n">
-        <f aca="false">F31</f>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>3907.2000000000003</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="6" t="n">
-        <f aca="false">G31+1</f>
+      <c r="G32" s="6">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1" t="n">
-        <f aca="false">IF(G32&gt;F32,G32-F32,0)</f>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="1">
         <v>10</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <f aca="false">I32*H32</f>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1" t="n">
-        <f aca="false">E32+J32</f>
-        <v>4117.2</v>
+      <c r="K32" s="1">
+        <f t="shared" si="3"/>
+        <v>4117.2000000000007</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2574,48 +2777,48 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <f aca="false">A32+1</f>
+    <row r="33" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <f aca="false">C32-0.5</f>
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <f aca="false">D32</f>
-        <v>70.4</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <f aca="false">C33*D33</f>
-        <v>3872</v>
-      </c>
-      <c r="F33" s="5" t="n">
-        <f aca="false">F32</f>
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>3872.0000000000005</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="6" t="n">
-        <f aca="false">G32+1</f>
+      <c r="G33" s="6">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">IF(G33&gt;F33,G33-F33,0)</f>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="1">
         <v>10</v>
       </c>
-      <c r="J33" s="1" t="n">
-        <f aca="false">I33*H33</f>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1" t="n">
-        <f aca="false">E33+J33</f>
-        <v>4092</v>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
+        <v>4092.0000000000005</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2643,47 +2846,47 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <f aca="false">A33+1</f>
+    <row r="34" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <f aca="false">C33-0.5</f>
+        <v>40</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <f aca="false">D33</f>
-        <v>70.4</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <f aca="false">C34*D34</f>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
         <v>3836.8</v>
       </c>
-      <c r="F34" s="5" t="n">
-        <f aca="false">F33</f>
+      <c r="F34" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="6" t="n">
-        <f aca="false">G33+1</f>
+      <c r="G34" s="6">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">IF(G34&gt;F34,G34-F34,0)</f>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="1">
         <v>10</v>
       </c>
-      <c r="J34" s="1" t="n">
-        <f aca="false">I34*H34</f>
+      <c r="J34" s="1">
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1" t="n">
-        <f aca="false">E34+J34</f>
+      <c r="K34" s="1">
+        <f t="shared" si="3"/>
         <v>4066.8</v>
       </c>
       <c r="L34" s="1"/>
@@ -2712,48 +2915,48 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <f aca="false">A34+1</f>
+    <row r="35" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <f aca="false">C34-0.5</f>
+        <v>41</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <f aca="false">D3/2</f>
-        <v>35.2</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <f aca="false">C35*D35</f>
-        <v>1900.8</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <f aca="false">F34</f>
+      <c r="D35" s="1">
+        <f>D3/2</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>1900.8000000000002</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="6" t="n">
-        <f aca="false">G34+1</f>
+      <c r="G35" s="6">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">IF(G35&gt;F35,G35-F35,0)</f>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="1">
         <v>10</v>
       </c>
-      <c r="J35" s="1" t="n">
-        <f aca="false">I35*H35</f>
+      <c r="J35" s="1">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1" t="n">
-        <f aca="false">E35+J35</f>
-        <v>2140.8</v>
+      <c r="K35" s="1">
+        <f t="shared" si="3"/>
+        <v>2140.8000000000002</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2781,48 +2984,48 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <f aca="false">A35+1</f>
+    <row r="36" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <f aca="false">C35-0.5</f>
+        <v>42</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <f aca="false">D3/2</f>
-        <v>35.2</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <f aca="false">C36*D36</f>
+      <c r="D36" s="1">
+        <f>D3/2</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
         <v>1883.2</v>
       </c>
-      <c r="F36" s="5" t="n">
-        <f aca="false">F35</f>
+      <c r="F36" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="6" t="n">
-        <f aca="false">G35+1</f>
+      <c r="G36" s="6">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">IF(G36&gt;F36,G36-F36,0)</f>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="1">
         <v>10</v>
       </c>
-      <c r="J36" s="1" t="n">
-        <f aca="false">I36*H36</f>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1" t="n">
-        <f aca="false">E36+J36</f>
-        <v>2133.2</v>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
+        <v>2133.1999999999998</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2850,48 +3053,48 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <f aca="false">A36+1</f>
+    <row r="37" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <f aca="false">C36-0.5</f>
+        <v>43</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <f aca="false">D3/2</f>
-        <v>35.2</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <f aca="false">C37*D37</f>
-        <v>1865.6</v>
-      </c>
-      <c r="F37" s="5" t="n">
-        <f aca="false">F36</f>
+      <c r="D37" s="1">
+        <f>D3/2</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>1865.6000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="6" t="n">
-        <f aca="false">G36+1</f>
+      <c r="G37" s="6">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">IF(G37&gt;F37,G37-F37,0)</f>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="1">
         <v>10</v>
       </c>
-      <c r="J37" s="1" t="n">
-        <f aca="false">I37*H37</f>
+      <c r="J37" s="1">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1" t="n">
-        <f aca="false">E37+J37</f>
-        <v>2125.6</v>
+      <c r="K37" s="1">
+        <f t="shared" si="3"/>
+        <v>2125.6000000000004</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2919,47 +3122,47 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <f aca="false">A37+1</f>
+    <row r="38" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <f aca="false">C37-0.5</f>
+        <v>44</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <f aca="false">D3/2</f>
-        <v>35.2</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <f aca="false">C38*D38</f>
-        <v>1848</v>
-      </c>
-      <c r="F38" s="5" t="n">
-        <f aca="false">F37</f>
+      <c r="D38" s="1">
+        <f>D3/2</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>1848.0000000000002</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="6" t="n">
-        <f aca="false">G37+1</f>
+      <c r="G38" s="6">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1" t="n">
-        <f aca="false">IF(G38&gt;F38,G38-F38,0)</f>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1" t="n">
+      <c r="I38" s="1">
         <v>10</v>
       </c>
-      <c r="J38" s="1" t="n">
-        <f aca="false">I38*H38</f>
+      <c r="J38" s="1">
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1" t="n">
-        <f aca="false">E38+J38</f>
+      <c r="K38" s="1">
+        <f t="shared" si="3"/>
         <v>2118</v>
       </c>
       <c r="L38" s="1"/>
@@ -2988,7 +3191,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3026,13 +3229,14 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>151514</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3068,13 +3272,14 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3110,13 +3315,14 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:36" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3152,13 +3358,14 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:36" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <f>MAX(K3:K38)</f>
+        <v>4928</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3194,7 +3401,7 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3232,7 +3439,7 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3270,7 +3477,7 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3308,7 +3515,7 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3346,7 +3553,7 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3384,7 +3591,7 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3422,7 +3629,7 @@
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3460,7 +3667,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3498,7 +3705,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3536,7 +3743,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3574,7 +3781,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3612,7 +3819,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3650,7 +3857,7 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3688,7 +3895,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3726,7 +3933,7 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3764,7 +3971,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3802,7 +4009,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3840,7 +4047,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3878,7 +4085,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3916,7 +4123,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3954,7 +4161,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3992,7 +4199,7 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4030,7 +4237,7 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4068,7 +4275,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4106,7 +4313,7 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4144,7 +4351,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4182,7 +4389,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4220,7 +4427,7 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4258,7 +4465,7 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4296,7 +4503,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4334,7 +4541,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4372,7 +4579,7 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4410,7 +4617,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4448,7 +4655,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4486,7 +4693,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4525,12 +4732,7 @@
       <c r="AJ78" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -170,13 +170,13 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -652,10 +652,10 @@
     </row>
     <row r="2" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <f>C3*D3</f>
         <v>4928</v>
       </c>
       <c r="F3" s="5">
@@ -735,18 +735,18 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H38" si="1">IF(G3&gt;F3,G3-F3,0)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J38" si="2">I3*H3</f>
+        <f>I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="0">E3+J3</f>
         <v>4928</v>
       </c>
       <c r="L3" s="1"/>
@@ -777,34 +777,34 @@
     </row>
     <row r="4" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="2">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <f t="shared" ref="D4:D34" si="3">D3</f>
         <v>70.400000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E38" si="4">C4*D4</f>
         <v>4892.8</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="5">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+        <f t="shared" ref="G4:G38" si="6">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H38" si="7">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -812,11 +812,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
+        <f>I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4892.8</v>
       </c>
       <c r="L4" s="1"/>
@@ -847,45 +847,45 @@
     </row>
     <row r="5" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="4"/>
+        <v>4857.6000000000004</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="D5" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>4857.6000000000004</v>
-      </c>
-      <c r="F5" s="5">
+        <v>44807</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="8"/>
-        <v>44807</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J3:J38" si="8">I5*H5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4857.6000000000004</v>
       </c>
       <c r="L5" s="1"/>
@@ -916,45 +916,45 @@
     </row>
     <row r="6" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>4822.4000000000005</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="5"/>
-        <v>68.5</v>
-      </c>
-      <c r="D6" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>4822.4000000000005</v>
-      </c>
-      <c r="F6" s="5">
+        <v>44808</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="8"/>
-        <v>44808</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4822.4000000000005</v>
       </c>
       <c r="L6" s="1"/>
@@ -985,45 +985,45 @@
     </row>
     <row r="7" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>4787.2000000000007</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>4787.2000000000007</v>
-      </c>
-      <c r="F7" s="5">
+        <v>44809</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="8"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4787.2000000000007</v>
       </c>
       <c r="L7" s="1"/>
@@ -1054,45 +1054,45 @@
     </row>
     <row r="8" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>4752</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="5"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>4752</v>
-      </c>
-      <c r="F8" s="5">
+        <v>44810</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="8"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4752</v>
       </c>
       <c r="L8" s="1"/>
@@ -1123,45 +1123,45 @@
     </row>
     <row r="9" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>4716.8</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="D9" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>4716.8</v>
-      </c>
-      <c r="F9" s="5">
+        <v>44811</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="8"/>
-        <v>44811</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4716.8</v>
       </c>
       <c r="L9" s="1"/>
@@ -1192,45 +1192,45 @@
     </row>
     <row r="10" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>4681.6000000000004</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="5"/>
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>4681.6000000000004</v>
-      </c>
-      <c r="F10" s="5">
+        <v>44812</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="8"/>
-        <v>44812</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4681.6000000000004</v>
       </c>
       <c r="L10" s="1"/>
@@ -1261,45 +1261,45 @@
     </row>
     <row r="11" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="4"/>
+        <v>4646.4000000000005</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>4646.4000000000005</v>
-      </c>
-      <c r="F11" s="5">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4646.4000000000005</v>
       </c>
       <c r="L11" s="1"/>
@@ -1330,45 +1330,45 @@
     </row>
     <row r="12" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>65.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="4"/>
+        <v>4611.2000000000007</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="5"/>
-        <v>65.5</v>
-      </c>
-      <c r="D12" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>4611.2000000000007</v>
-      </c>
-      <c r="F12" s="5">
+        <v>44814</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="8"/>
-        <v>44814</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4621.2000000000007</v>
       </c>
       <c r="L12" s="1"/>
@@ -1399,45 +1399,45 @@
     </row>
     <row r="13" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>4576</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="D13" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>4576</v>
-      </c>
-      <c r="F13" s="5">
+        <v>44815</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="8"/>
-        <v>44815</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4596</v>
       </c>
       <c r="L13" s="1"/>
@@ -1468,45 +1468,45 @@
     </row>
     <row r="14" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>4540.8</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="5"/>
-        <v>64.5</v>
-      </c>
-      <c r="D14" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>4540.8</v>
-      </c>
-      <c r="F14" s="5">
+        <v>44816</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="8"/>
-        <v>44816</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4570.8</v>
       </c>
       <c r="L14" s="1"/>
@@ -1537,45 +1537,45 @@
     </row>
     <row r="15" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>4505.6000000000004</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="D15" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>4505.6000000000004</v>
-      </c>
-      <c r="F15" s="5">
+        <v>44817</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="8"/>
-        <v>44817</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4545.6000000000004</v>
       </c>
       <c r="L15" s="1"/>
@@ -1606,45 +1606,45 @@
     </row>
     <row r="16" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>4470.4000000000005</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="5"/>
-        <v>63.5</v>
-      </c>
-      <c r="D16" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>4470.4000000000005</v>
-      </c>
-      <c r="F16" s="5">
+        <v>44818</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="8"/>
-        <v>44818</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4520.4000000000005</v>
       </c>
       <c r="L16" s="1"/>
@@ -1675,45 +1675,45 @@
     </row>
     <row r="17" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>4435.2000000000007</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="D17" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>4435.2000000000007</v>
-      </c>
-      <c r="F17" s="5">
+        <v>44819</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="8"/>
-        <v>44819</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4495.2000000000007</v>
       </c>
       <c r="L17" s="1"/>
@@ -1744,45 +1744,45 @@
     </row>
     <row r="18" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>4400</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="5"/>
-        <v>62.5</v>
-      </c>
-      <c r="D18" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-      <c r="F18" s="5">
+        <v>44820</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="8"/>
-        <v>44820</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4470</v>
       </c>
       <c r="L18" s="1"/>
@@ -1813,45 +1813,45 @@
     </row>
     <row r="19" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>4364.8</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="D19" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>4364.8</v>
-      </c>
-      <c r="F19" s="5">
+        <v>44821</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="8"/>
-        <v>44821</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4444.8</v>
       </c>
       <c r="L19" s="1"/>
@@ -1882,45 +1882,45 @@
     </row>
     <row r="20" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>4329.6000000000004</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="5"/>
-        <v>61.5</v>
-      </c>
-      <c r="D20" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>4329.6000000000004</v>
-      </c>
-      <c r="F20" s="5">
+        <v>44822</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="8"/>
-        <v>44822</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4419.6000000000004</v>
       </c>
       <c r="L20" s="1"/>
@@ -1951,45 +1951,45 @@
     </row>
     <row r="21" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>4294.4000000000005</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="D21" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>4294.4000000000005</v>
-      </c>
-      <c r="F21" s="5">
+        <v>44823</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="8"/>
-        <v>44823</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4394.4000000000005</v>
       </c>
       <c r="L21" s="1"/>
@@ -2020,45 +2020,45 @@
     </row>
     <row r="22" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>4259.2000000000007</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="5"/>
-        <v>60.5</v>
-      </c>
-      <c r="D22" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>4259.2000000000007</v>
-      </c>
-      <c r="F22" s="5">
+        <v>44824</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="8"/>
-        <v>44824</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4369.2000000000007</v>
       </c>
       <c r="L22" s="1"/>
@@ -2089,45 +2089,45 @@
     </row>
     <row r="23" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>4224</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="D23" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>4224</v>
-      </c>
-      <c r="F23" s="5">
+        <v>44825</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="8"/>
-        <v>44825</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4344</v>
       </c>
       <c r="L23" s="1"/>
@@ -2158,45 +2158,45 @@
     </row>
     <row r="24" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>4188.8</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="5"/>
-        <v>59.5</v>
-      </c>
-      <c r="D24" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>4188.8</v>
-      </c>
-      <c r="F24" s="5">
+        <v>44826</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="8"/>
-        <v>44826</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4318.8</v>
       </c>
       <c r="L24" s="1"/>
@@ -2227,45 +2227,45 @@
     </row>
     <row r="25" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>4153.6000000000004</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="D25" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>4153.6000000000004</v>
-      </c>
-      <c r="F25" s="5">
+        <v>44827</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="8"/>
-        <v>44827</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4293.6000000000004</v>
       </c>
       <c r="L25" s="1"/>
@@ -2296,45 +2296,45 @@
     </row>
     <row r="26" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>4118.4000000000005</v>
+      </c>
+      <c r="F26" s="5">
         <f t="shared" si="5"/>
-        <v>58.5</v>
-      </c>
-      <c r="D26" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>4118.4000000000005</v>
-      </c>
-      <c r="F26" s="5">
+        <v>44828</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="8"/>
-        <v>44828</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4268.4000000000005</v>
       </c>
       <c r="L26" s="1"/>
@@ -2365,45 +2365,45 @@
     </row>
     <row r="27" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>4083.2000000000003</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>4083.2000000000003</v>
-      </c>
-      <c r="F27" s="5">
+        <v>44829</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="8"/>
-        <v>44829</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4243.2000000000007</v>
       </c>
       <c r="L27" s="1"/>
@@ -2434,45 +2434,45 @@
     </row>
     <row r="28" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="4"/>
+        <v>4048.0000000000005</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="5"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>4048.0000000000005</v>
-      </c>
-      <c r="F28" s="5">
+        <v>44830</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="8"/>
-        <v>44830</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4218</v>
       </c>
       <c r="L28" s="1"/>
@@ -2503,45 +2503,45 @@
     </row>
     <row r="29" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>4012.8</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>4012.8</v>
-      </c>
-      <c r="F29" s="5">
+        <v>44831</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="8"/>
-        <v>44831</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4192.8</v>
       </c>
       <c r="L29" s="1"/>
@@ -2572,45 +2572,45 @@
     </row>
     <row r="30" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="4"/>
+        <v>3977.6000000000004</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="5"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>3977.6000000000004</v>
-      </c>
-      <c r="F30" s="5">
+        <v>44832</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="8"/>
-        <v>44832</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4167.6000000000004</v>
       </c>
       <c r="L30" s="1"/>
@@ -2641,45 +2641,45 @@
     </row>
     <row r="31" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>3942.4000000000005</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="D31" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>3942.4000000000005</v>
-      </c>
-      <c r="F31" s="5">
+        <v>44833</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="8"/>
-        <v>44833</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4142.4000000000005</v>
       </c>
       <c r="L31" s="1"/>
@@ -2710,45 +2710,45 @@
     </row>
     <row r="32" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="4"/>
+        <v>3907.2000000000003</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="5"/>
-        <v>55.5</v>
-      </c>
-      <c r="D32" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>3907.2000000000003</v>
-      </c>
-      <c r="F32" s="5">
+        <v>44834</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="8"/>
-        <v>44834</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4117.2000000000007</v>
       </c>
       <c r="L32" s="1"/>
@@ -2779,45 +2779,45 @@
     </row>
     <row r="33" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="4"/>
+        <v>3872.0000000000005</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="D33" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>3872.0000000000005</v>
-      </c>
-      <c r="F33" s="5">
+        <v>44835</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="8"/>
-        <v>44835</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4092.0000000000005</v>
       </c>
       <c r="L33" s="1"/>
@@ -2848,45 +2848,45 @@
     </row>
     <row r="34" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="3"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="4"/>
+        <v>3836.8</v>
+      </c>
+      <c r="F34" s="5">
         <f t="shared" si="5"/>
-        <v>54.5</v>
-      </c>
-      <c r="D34" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="6"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>3836.8</v>
-      </c>
-      <c r="F34" s="5">
+        <v>44836</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="8"/>
-        <v>44836</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4066.8</v>
       </c>
       <c r="L34" s="1"/>
@@ -2917,14 +2917,14 @@
     </row>
     <row r="35" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -2932,30 +2932,30 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1900.8000000000002</v>
       </c>
       <c r="F35" s="5">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="6"/>
+        <v>44837</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="8"/>
-        <v>44837</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2140.8000000000002</v>
       </c>
       <c r="L35" s="1"/>
@@ -2986,14 +2986,14 @@
     </row>
     <row r="36" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -3001,30 +3001,30 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1883.2</v>
       </c>
       <c r="F36" s="5">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="6"/>
+        <v>44838</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" si="8"/>
-        <v>44838</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2133.1999999999998</v>
       </c>
       <c r="L36" s="1"/>
@@ -3055,14 +3055,14 @@
     </row>
     <row r="37" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -3070,30 +3070,30 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1865.6000000000001</v>
       </c>
       <c r="F37" s="5">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="6"/>
+        <v>44839</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="8"/>
-        <v>44839</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2125.6000000000004</v>
       </c>
       <c r="L37" s="1"/>
@@ -3124,14 +3124,14 @@
     </row>
     <row r="38" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -3139,30 +3139,30 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1848.0000000000002</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="6"/>
+        <v>44840</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="8"/>
-        <v>44840</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2118</v>
       </c>
       <c r="L38" s="1"/>
@@ -3358,10 +3358,10 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="1:36" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:36" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -792,7 +792,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E38" si="4">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="4">C4*D4</f>
         <v>4892.8</v>
       </c>
       <c r="F4" s="5">
@@ -804,7 +804,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H3:H38" si="7">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="7">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f>I4*H4</f>
+        <f t="shared" ref="J4:J38" si="8">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -878,10 +878,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J3:J38" si="8">I5*H5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -947,6 +948,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -1016,6 +1018,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -1085,6 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -1154,6 +1158,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -1223,6 +1228,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1292,6 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1361,6 +1368,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1430,6 +1438,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1499,6 +1508,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1568,6 +1578,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1637,6 +1648,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1706,6 +1718,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1775,6 +1788,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1844,6 +1858,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1913,6 +1928,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1982,6 +1998,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -2051,6 +2068,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -2120,6 +2138,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -2189,6 +2208,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -2258,6 +2278,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -2327,6 +2348,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -2396,6 +2418,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -2465,6 +2488,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -2534,6 +2558,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -2603,6 +2628,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -2672,6 +2698,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -2741,6 +2768,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -2810,6 +2838,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2879,10 +2908,11 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="8"/>
+        <f>H34*I34</f>
         <v>230</v>
       </c>
       <c r="K34" s="1">
@@ -2948,6 +2978,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -3017,6 +3048,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -3086,6 +3118,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -3155,6 +3188,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3269,7 +3269,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>151514</v>
       </c>
       <c r="D40" s="1"/>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -60,18 +60,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -172,13 +160,25 @@
   </si>
   <si>
     <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,9 +249,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,14 +533,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="111" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="111" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="21.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
@@ -558,33 +570,33 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -624,8 +636,8 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -666,8 +678,8 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -708,8 +720,8 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -750,8 +762,8 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -792,8 +804,8 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -834,8 +846,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -876,8 +888,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -918,8 +930,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -960,8 +972,8 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1002,8 +1014,8 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1044,8 +1056,8 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1086,8 +1098,8 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1128,8 +1140,8 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1170,8 +1182,8 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1212,8 +1224,8 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1254,8 +1266,8 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1296,8 +1308,8 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1338,8 +1350,8 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1380,8 +1392,8 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
+      <c r="B22" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1422,8 +1434,8 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
+      <c r="B23" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1464,8 +1476,8 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1506,8 +1518,8 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1548,8 +1560,8 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
+      <c r="B26" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1590,8 +1602,8 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
+      <c r="B27" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1632,8 +1644,8 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
+      <c r="B28" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1674,8 +1686,8 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
+      <c r="B29" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1716,8 +1728,8 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
+      <c r="B30" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1758,8 +1770,8 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1800,8 +1812,8 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1842,8 +1854,8 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
+      <c r="B33" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1884,8 +1896,8 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1926,15 +1938,15 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D31/2</f>
+        <f>D3/2</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E35" s="1">
@@ -1968,15 +1980,15 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D32/2</f>
+        <f>D3/2</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -2010,8 +2022,8 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2052,8 +2064,8 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
+      <c r="B38" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2096,10 +2108,10 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
-        <f>MROUND(SUM(K3:K38),1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>151514</v>
       </c>
       <c r="H40" s="4"/>
@@ -2107,7 +2119,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2118,7 +2130,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2128,7 +2140,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -24,9 +24,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="111" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -561,34 +561,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -596,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>64*1.1</f>
+        <f>$A$1*1.1</f>
         <v>70.400000000000006</v>
       </c>
       <c r="E3" s="1">
@@ -616,7 +616,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="4">
-        <f>IF(G3&lt;=F3,0, G3-F3)</f>
+        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -637,14 +637,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">64*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>70.400000000000006</v>
       </c>
       <c r="E4" s="1">
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -931,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f>SUM(E12,J12)</f>
         <v>4621.2000000000007</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1141,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1225,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1267,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1309,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1351,7 +1351,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1393,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1435,7 +1435,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1477,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1519,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1603,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1645,7 +1645,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1687,7 +1687,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1729,7 +1729,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1771,7 +1771,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1813,7 +1813,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1855,7 +1855,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1897,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1939,14 +1939,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/2</f>
+        <f>$D$3/2</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E35" s="1">
@@ -1981,14 +1981,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/2</f>
+        <f t="shared" ref="D36:D38" si="7">$D$3/2</f>
         <v>35.200000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -2023,14 +2023,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D33/2</f>
+        <f t="shared" si="7"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2065,14 +2065,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D34/2</f>
+        <f t="shared" si="7"/>
         <v>35.200000000000003</v>
       </c>
       <c r="E38" s="1">
@@ -2108,7 +2108,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2119,7 +2119,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2130,7 +2130,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2140,7 +2140,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="4">
-        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3, G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>SUM(E3,J3)</f>
+        <f>E3+J3</f>
         <v>4928</v>
       </c>
     </row>
@@ -652,16 +652,19 @@
         <v>4892.8</v>
       </c>
       <c r="F4" s="3">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4, G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -669,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>4892.8</v>
       </c>
     </row>
@@ -694,9 +697,11 @@
         <v>4857.6000000000004</v>
       </c>
       <c r="F5" s="3">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="4">
@@ -704,6 +709,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -736,9 +742,11 @@
         <v>4822.4000000000005</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="4">
@@ -746,6 +754,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -778,9 +787,11 @@
         <v>4787.2000000000007</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="4">
@@ -788,6 +799,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -820,9 +832,11 @@
         <v>4752</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="4">
@@ -830,6 +844,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -862,9 +877,11 @@
         <v>4716.8</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="4">
@@ -872,6 +889,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -904,9 +922,11 @@
         <v>4681.6000000000004</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="4">
@@ -914,6 +934,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -946,9 +967,11 @@
         <v>4646.4000000000005</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="4">
@@ -956,6 +979,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -988,9 +1012,11 @@
         <v>4611.2000000000007</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="4">
@@ -998,6 +1024,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1005,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f>SUM(E12,J12)</f>
+        <f t="shared" si="3"/>
         <v>4621.2000000000007</v>
       </c>
     </row>
@@ -1030,9 +1057,11 @@
         <v>4576</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="4">
@@ -1040,6 +1069,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1072,9 +1102,11 @@
         <v>4540.8</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="4">
@@ -1082,6 +1114,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1114,9 +1147,11 @@
         <v>4505.6000000000004</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="4">
@@ -1124,6 +1159,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1156,9 +1192,11 @@
         <v>4470.4000000000005</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="4">
@@ -1166,6 +1204,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1198,9 +1237,11 @@
         <v>4435.2000000000007</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="4">
@@ -1208,6 +1249,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1240,9 +1282,11 @@
         <v>4400</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="4">
@@ -1250,6 +1294,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1282,9 +1327,11 @@
         <v>4364.8</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="4">
@@ -1292,6 +1339,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1324,9 +1372,11 @@
         <v>4329.6000000000004</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="4">
@@ -1334,6 +1384,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1366,9 +1417,11 @@
         <v>4294.4000000000005</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="4">
@@ -1376,6 +1429,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1408,9 +1462,11 @@
         <v>4259.2000000000007</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="4">
@@ -1418,6 +1474,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1450,9 +1507,11 @@
         <v>4224</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="4">
@@ -1460,6 +1519,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1492,9 +1552,11 @@
         <v>4188.8</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="4">
@@ -1502,6 +1564,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1534,9 +1597,11 @@
         <v>4153.6000000000004</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="4">
@@ -1544,6 +1609,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1576,9 +1642,11 @@
         <v>4118.4000000000005</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="4">
@@ -1586,6 +1654,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1618,9 +1687,11 @@
         <v>4083.2000000000003</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="4">
@@ -1628,6 +1699,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1660,9 +1732,11 @@
         <v>4048.0000000000005</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="4">
@@ -1670,6 +1744,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1702,9 +1777,11 @@
         <v>4012.8</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="4">
@@ -1712,6 +1789,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1744,9 +1822,11 @@
         <v>3977.6000000000004</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="4">
@@ -1754,6 +1834,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1786,9 +1867,11 @@
         <v>3942.4000000000005</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="4">
@@ -1796,6 +1879,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1828,9 +1912,11 @@
         <v>3907.2000000000003</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="4">
@@ -1838,6 +1924,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1870,9 +1957,11 @@
         <v>3872.0000000000005</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="4">
@@ -1880,6 +1969,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1912,9 +2002,11 @@
         <v>3836.8</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="4">
@@ -1922,6 +2014,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1946,17 +2039,19 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
-        <v>35.200000000000003</v>
+        <f>$D$3/3</f>
+        <v>23.466666666666669</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="6"/>
-        <v>1900.8000000000002</v>
+        <v>1267.2</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="4">
@@ -1964,6 +2059,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1972,7 +2068,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2140.8000000000002</v>
+        <v>1507.2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1988,17 +2084,19 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">$D$3/2</f>
-        <v>35.200000000000003</v>
+        <f>$D$3/3</f>
+        <v>23.466666666666669</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="6"/>
-        <v>1883.2</v>
+        <v>1255.4666666666667</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="4">
@@ -2006,6 +2104,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2014,7 +2113,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2133.1999999999998</v>
+        <v>1505.4666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2030,17 +2129,19 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
-        <v>35.200000000000003</v>
+        <f>$D$3/3</f>
+        <v>23.466666666666669</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="6"/>
-        <v>1865.6000000000001</v>
+        <v>1243.7333333333333</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="4">
@@ -2048,6 +2149,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2056,7 +2158,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2125.6000000000004</v>
+        <v>1503.7333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2072,17 +2174,19 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
-        <v>35.200000000000003</v>
+        <f>$D$3/3</f>
+        <v>23.466666666666669</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="6"/>
-        <v>1848.0000000000002</v>
+        <v>1232</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="4">
@@ -2090,6 +2194,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2098,7 +2203,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2118</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,7 +2217,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>151514</v>
+        <v>149015</v>
       </c>
       <c r="H40" s="4"/>
     </row>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="4">
-        <f>IF(G3&gt;F3, G3-F3,0)</f>
+        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -660,7 +660,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4, G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -1994,7 +1994,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f>$A$1*1.1</f>
         <v>70.400000000000006</v>
       </c>
       <c r="E34" s="1">
@@ -2039,12 +2039,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/3</f>
-        <v>23.466666666666669</v>
+        <f>$A$1*1.1/2</f>
+        <v>35.200000000000003</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="6"/>
-        <v>1267.2</v>
+        <v>1900.8000000000002</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="7"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>1507.2</v>
+        <v>2140.8000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2084,12 +2084,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>$D$3/3</f>
-        <v>23.466666666666669</v>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <v>35.200000000000003</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="6"/>
-        <v>1255.4666666666667</v>
+        <v>1883.2</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="7"/>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>1505.4666666666667</v>
+        <v>2133.1999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2129,12 +2129,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>$D$3/3</f>
-        <v>23.466666666666669</v>
+        <f t="shared" si="10"/>
+        <v>35.200000000000003</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="6"/>
-        <v>1243.7333333333333</v>
+        <v>1865.6000000000001</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="7"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>1503.7333333333333</v>
+        <v>2125.6000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2174,12 +2174,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>$D$3/3</f>
-        <v>23.466666666666669</v>
+        <f t="shared" si="10"/>
+        <v>35.200000000000003</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="6"/>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="7"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>1502</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>149015</v>
+        <v>151514</v>
       </c>
       <c r="H40" s="4"/>
     </row>

--- a/LR3/table_1_64.xlsx
+++ b/LR3/table_1_64.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="4">
-        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -644,7 +644,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D33" si="0">$A$1*1.1</f>
         <v>70.400000000000006</v>
       </c>
       <c r="E4" s="1">
@@ -660,7 +660,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
